--- a/Управление проектами/lab3/3lab.xlsx
+++ b/Управление проектами/lab3/3lab.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="PERT" sheetId="2" r:id="rId2"/>
+    <sheet name="функциональные точки" sheetId="3" r:id="rId2"/>
+    <sheet name="COCOMO II" sheetId="4" r:id="rId3"/>
+    <sheet name="PERT" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
   <si>
     <t>Чистый дисконтированный доход</t>
   </si>
@@ -122,13 +124,190 @@
   </si>
   <si>
     <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>Добавление пользователя</t>
+  </si>
+  <si>
+    <t>Добавление данных измерения метрики здоровья</t>
+  </si>
+  <si>
+    <t>Добавление пользователя в семейную группу</t>
+  </si>
+  <si>
+    <t>Внос информации о количестве лекарства</t>
+  </si>
+  <si>
+    <t>Внос информации о времени приема лекарства</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>Статистика измерений метрик здоровья</t>
+  </si>
+  <si>
+    <t>Уведомление о приеме лекарства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уведомление о пополнении запаса </t>
+  </si>
+  <si>
+    <t>Уведомление члена семейной группы</t>
+  </si>
+  <si>
+    <t>ILF</t>
+  </si>
+  <si>
+    <t>База данных с данными метрик здоровья</t>
+  </si>
+  <si>
+    <t>Изменение данных о количестве лекарства</t>
+  </si>
+  <si>
+    <t>Изменение данных о приеме лекарства</t>
+  </si>
+  <si>
+    <t>Подтверждение приема лекарства</t>
+  </si>
+  <si>
+    <t>Отправка статистики по метрикам здоровья члену семейной группы</t>
+  </si>
+  <si>
+    <t>Члены семейной группы</t>
+  </si>
+  <si>
+    <t>Время приема лекарств</t>
+  </si>
+  <si>
+    <t>Лекарства и их запасы</t>
+  </si>
+  <si>
+    <t>EIF</t>
+  </si>
+  <si>
+    <t>API Telegram</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Рассылка по email</t>
+  </si>
+  <si>
+    <t>графики+сравнение с нормой</t>
+  </si>
+  <si>
+    <t>название+время+звуковой сигнал</t>
+  </si>
+  <si>
+    <t>название+остаток+звуковой сигнал</t>
+  </si>
+  <si>
+    <t>название+время+остаток</t>
+  </si>
+  <si>
+    <t>название, количество в упаковке, остаток</t>
+  </si>
+  <si>
+    <t>имя пользователя, email, телефон, telegram id</t>
+  </si>
+  <si>
+    <t>название метрики, дата и время измерения, количество, единица измерения</t>
+  </si>
+  <si>
+    <t>название, время</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>Низкая</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Высокая</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>Количество часов на FP</t>
+  </si>
+  <si>
+    <t>Всего часов</t>
+  </si>
+  <si>
+    <t>Рабочих дней</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effort = A × (Size)^E = </t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Надёжность (RELY)</t>
+  </si>
+  <si>
+    <t>Медицинские напоминания требуют стабильности.</t>
+  </si>
+  <si>
+    <t>Опыт команды (PERS)</t>
+  </si>
+  <si>
+    <t>Предположим, разработчики знакомы с Kotlin и Firebase.</t>
+  </si>
+  <si>
+    <t>Инструменты (TOOL)</t>
+  </si>
+  <si>
+    <t>Используются Android Studio, Firebase, Jetpack Compose.</t>
+  </si>
+  <si>
+    <t>Сроки (SCED)</t>
+  </si>
+  <si>
+    <t>Стандартный график.</t>
+  </si>
+  <si>
+    <t>Поправочный коеффициент</t>
+  </si>
+  <si>
+    <t>Усиление</t>
+  </si>
+  <si>
+    <t>Человеко-часов</t>
+  </si>
+  <si>
+    <t>Месяцев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,9 +316,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -155,7 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,16 +389,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1391,126 +1607,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-50000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>B3/(1+C3)^A3</f>
         <v>-50000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>10000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D8" si="0">B4/(1+C4)^A4</f>
         <v>9090.9090909090901</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>15000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>12396.694214876032</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>20000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>15026.296018031551</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>25000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>17075.336384126764</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>30000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>18627.63969177465</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9">
         <f>SUM(D3:D8)</f>
         <v>22216.875399718083</v>
       </c>
@@ -1519,7 +1740,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <f>D9/(-1*D3) + 1</f>
         <v>1.4443375079943617</v>
       </c>
@@ -1528,7 +1749,7 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <f>IRR(B3:B8)</f>
         <v>0.23291940737673422</v>
       </c>
@@ -1537,7 +1758,7 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1550,10 +1771,846 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <f>SUM(E2:E9)</f>
+        <v>27</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <f>SUM(E10:E14)</f>
+        <v>26</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="H16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="H17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(E15:E18)</f>
+        <v>31</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="H19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="H20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5">
+        <f>SUM(E19:E21)</f>
+        <v>17</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <f>SUM(F9:F21)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <f>F22*A25</f>
+        <v>1515</v>
+      </c>
+      <c r="C25">
+        <f>B25/8</f>
+        <v>189.375</v>
+      </c>
+      <c r="D25">
+        <f>C25/30</f>
+        <v>6.3125</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1">
+        <f>H1*H3^H2</f>
+        <v>18.195653567589456</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B4*B5*B6*B7</f>
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f>C1*B8</f>
+        <v>15.311642477126528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <f>B10*152</f>
+        <v>2327.3696565232322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G13:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,508 +2618,511 @@
     <col min="4" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>46023</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>46082</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>46037</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>F3+(E3-D3)</f>
         <v>46096</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f>F3-D3</f>
         <v>14</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>D4-E3</f>
         <v>19</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <f>E3-D3</f>
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>46101</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>46143</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>46113</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G10" si="0">F4+(E4-D4)</f>
         <v>46155</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" ref="H4:H10" si="1">F4-D4</f>
         <v>12</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>D5-E4</f>
         <v>19</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J10" si="2">E4-D4</f>
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>46162</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>46183</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>46174</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>46195</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>F5-D5</f>
         <v>12</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="3">D6-E5</f>
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f>E5-D5</f>
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>46203</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>46296</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>46203</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>46296</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f>E6-D6</f>
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>46300</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>46331</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>46305</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>46336</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>46336</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>46366</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>46341</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>46371</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>46371</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>46376</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>46376</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>46381</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>46381</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>46385</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>46382</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>46386</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="14">
         <v>40</v>
       </c>
-      <c r="C14" s="4">
+      <c r="I14" s="14">
         <v>50</v>
       </c>
-      <c r="D14" s="5">
+      <c r="J14" s="15">
         <v>60</v>
       </c>
-      <c r="E14">
-        <f>(B14+4*C14+D14)/6</f>
+      <c r="K14" s="1">
+        <f>(H14+4*I14+J14)/6</f>
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="14">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="I15" s="14">
         <v>45</v>
       </c>
-      <c r="D15" s="4">
+      <c r="J15" s="14">
         <v>55</v>
       </c>
-      <c r="E15">
-        <f t="shared" ref="E15:E21" si="4">(B15+4*C15+D15)/6</f>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15:K21" si="4">(H15+4*I15+J15)/6</f>
         <v>44.166666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="14">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="I16" s="14">
         <v>20</v>
       </c>
-      <c r="D16" s="4">
+      <c r="J16" s="14">
         <v>25</v>
       </c>
-      <c r="E16">
+      <c r="K16" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="14">
         <v>30</v>
       </c>
-      <c r="C17" s="4">
+      <c r="I17" s="14">
         <v>40</v>
       </c>
-      <c r="D17" s="4">
+      <c r="J17" s="14">
         <v>70</v>
       </c>
-      <c r="E17">
+      <c r="K17" s="1">
         <f t="shared" si="4"/>
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="14">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="I18" s="14">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="J18" s="14">
         <v>40</v>
       </c>
-      <c r="E18">
+      <c r="K18" s="1">
         <f t="shared" si="4"/>
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="14">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="I19" s="14">
         <v>30</v>
       </c>
-      <c r="D19" s="4">
+      <c r="J19" s="14">
         <v>40</v>
       </c>
-      <c r="E19">
+      <c r="K19" s="1">
         <f t="shared" si="4"/>
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="I20" s="14">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="J20" s="14">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="K20" s="1">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="14">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="I21" s="14">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="J21" s="14">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="K21" s="1">
         <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="6">
-        <f>SUM(E14:E21)</f>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="9">
+        <f>SUM(K14:K21)</f>
         <v>225.49999999999997</v>
       </c>
     </row>

--- a/Управление проектами/lab3/3lab.xlsx
+++ b/Управление проектами/lab3/3lab.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="функциональные точки" sheetId="3" r:id="rId2"/>
-    <sheet name="COCOMO II" sheetId="4" r:id="rId3"/>
-    <sheet name="PERT" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId2"/>
+    <sheet name="функциональные точки" sheetId="3" r:id="rId3"/>
+    <sheet name="COCOMO II" sheetId="4" r:id="rId4"/>
+    <sheet name="PERT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>Чистый дисконтированный доход</t>
   </si>
@@ -301,13 +302,52 @@
   </si>
   <si>
     <t>Месяцев</t>
+  </si>
+  <si>
+    <t>Канал</t>
+  </si>
+  <si>
+    <t>Бюджет</t>
+  </si>
+  <si>
+    <t>Доля</t>
+  </si>
+  <si>
+    <t>Традиционные СМИ</t>
+  </si>
+  <si>
+    <t>$12,000</t>
+  </si>
+  <si>
+    <t>Локальные точки присутствия</t>
+  </si>
+  <si>
+    <t>$9,000</t>
+  </si>
+  <si>
+    <t>Онлайн-реклама</t>
+  </si>
+  <si>
+    <t>$4,500</t>
+  </si>
+  <si>
+    <t>Образовательные мероприятия</t>
+  </si>
+  <si>
+    <t>$3,000</t>
+  </si>
+  <si>
+    <t>Партнерские программы</t>
+  </si>
+  <si>
+    <t>$1,500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +387,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -362,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -385,11 +433,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -413,6 +481,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,11 +542,299 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Чистая</a:t>
+              <a:t>Чистая приведенная стоимость</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-6700000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36363636.36363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33057851.239669412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30052592.036063101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27320538.214602817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8791-492C-9511-60334BCA2A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="446608056"/>
+        <c:axId val="446604776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="446608056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446604776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="446604776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446608056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доля денег в рекламной</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> приведенная стоимость</a:t>
+              <a:t> компании</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -508,67 +873,204 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Доля</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$3:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-50000</c:v>
+                  <c:v>Традиционные СМИ</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9090.9090909090901</c:v>
+                  <c:v>Локальные точки присутствия</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12396.694214876032</c:v>
+                  <c:v>Онлайн-реклама</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15026.296018031551</c:v>
+                  <c:v>Образовательные мероприятия</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17075.336384126764</c:v>
+                  <c:v>Партнерские программы</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>18627.63969177465</c:v>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E0B2-4548-978A-6C86E9821AAE}"/>
+              <c16:uniqueId val="{00000000-132D-4C69-9BDB-38F2383211AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -579,133 +1081,11 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:axId val="447962016"/>
-        <c:axId val="447957096"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="447962016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="447957096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="447957096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="447962016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -714,6 +1094,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -791,8 +1203,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -819,8 +1271,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -900,6 +1352,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -910,6 +1367,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -921,7 +1383,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -941,6 +1403,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -953,10 +1418,527 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1277,17 +2259,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1311,20 +2282,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>414336</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1607,11 +2613,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1640,14 +2649,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>-50000</v>
+        <f>-4200000-2500000</f>
+        <v>-6700000</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
       </c>
       <c r="D3" s="1">
         <f>B3/(1+C3)^A3</f>
-        <v>-50000</v>
+        <v>-6700000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,14 +2665,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>10000</v>
+        <f>48000000-4000000</f>
+        <v>44000000</v>
       </c>
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D8" si="0">B4/(1+C4)^A4</f>
-        <v>9090.9090909090901</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,14 +2681,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>15000</v>
+        <f>48000000-4000000</f>
+        <v>44000000</v>
       </c>
       <c r="C5" s="1">
         <v>0.1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>12396.694214876032</v>
+        <v>36363636.36363636</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,14 +2697,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>20000</v>
+        <f t="shared" ref="B5:B8" si="1">48000000-4000000</f>
+        <v>44000000</v>
       </c>
       <c r="C6" s="1">
         <v>0.1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>15026.296018031551</v>
+        <v>33057851.239669412</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,14 +2713,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>25000</v>
+        <f t="shared" si="1"/>
+        <v>44000000</v>
       </c>
       <c r="C7" s="1">
         <v>0.1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>17075.336384126764</v>
+        <v>30052592.036063101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,14 +2729,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>44000000</v>
       </c>
       <c r="C8" s="1">
         <v>0.1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>18627.63969177465</v>
+        <v>27320538.214602817</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,7 +2748,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="9">
         <f>SUM(D3:D8)</f>
-        <v>22216.875399718083</v>
+        <v>160094617.85397169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,8 +2756,8 @@
         <v>6</v>
       </c>
       <c r="C12" s="10">
-        <f>D9/(-1*D3) + 1</f>
-        <v>1.4443375079943617</v>
+        <f>D9/(-1*D3)</f>
+        <v>23.894719082682343</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,7 +2766,7 @@
       </c>
       <c r="C14" s="11">
         <f>IRR(B3:B8)</f>
-        <v>0.23291940737673422</v>
+        <v>6.5668994583108304</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,6 +2785,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -2487,11 +3584,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2605,7 +3702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>

--- a/Управление проектами/lab3/3lab.xlsx
+++ b/Управление проектами/lab3/3lab.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28802"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28182E-4FD8-4EBA-87F6-540D4DC8B654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="5" r:id="rId2"/>
-    <sheet name="функциональные точки" sheetId="3" r:id="rId3"/>
-    <sheet name="COCOMO II" sheetId="4" r:id="rId4"/>
-    <sheet name="PERT" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="7" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId4"/>
+    <sheet name="функциональные точки" sheetId="3" r:id="rId5"/>
+    <sheet name="COCOMO II" sheetId="4" r:id="rId6"/>
+    <sheet name="PERT" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
   <si>
     <t>Чистый дисконтированный доход</t>
   </si>
@@ -331,22 +345,37 @@
     <t>$4,500</t>
   </si>
   <si>
-    <t>Образовательные мероприятия</t>
-  </si>
-  <si>
-    <t>$3,000</t>
-  </si>
-  <si>
     <t>Партнерские программы</t>
   </si>
   <si>
     <t>$1,500</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>Инвесторам</t>
+  </si>
+  <si>
+    <t>Процент</t>
+  </si>
+  <si>
+    <t>Нам</t>
+  </si>
+  <si>
+    <t>ВСЕГО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -468,7 +497,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -478,8 +506,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -547,7 +573,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -830,6 +855,390 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
+              <a:t>Количество пользователе</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>й в первый год</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8100.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8100.0000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89B7-4FE5-ACE9-1C20565BE8E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561872952"/>
+        <c:axId val="561874752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561872952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561874752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561874752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561872952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Доля денег в рекламной</a:t>
             </a:r>
             <a:r>
@@ -840,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -903,6 +1311,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6573-49A6-9A3E-FAECFA217CC3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -918,6 +1331,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6573-49A6-9A3E-FAECFA217CC3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -933,6 +1351,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6573-49A6-9A3E-FAECFA217CC3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -948,21 +1371,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6573-49A6-9A3E-FAECFA217CC3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1016,16 +1429,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист2!$A$2:$A$6</c:f>
+              <c:f>Лист2!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Традиционные СМИ</c:v>
                 </c:pt>
@@ -1036,9 +1447,6 @@
                   <c:v>Онлайн-реклама</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Образовательные мероприятия</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Партнерские программы</c:v>
                 </c:pt>
               </c:strCache>
@@ -1046,12 +1454,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$C$2:$C$6</c:f>
+              <c:f>Лист2!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
@@ -1060,9 +1468,6 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1096,7 +1501,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7763773607041251E-2"/>
+          <c:y val="0.72739032620922373"/>
+          <c:w val="0.92778816166151612"/>
+          <c:h val="0.2500532828133325"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1110,7 +1524,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1243,6 +1657,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1760,6 +2214,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2295,7 +3265,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2317,6 +3293,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1A9623-3441-76B4-14C5-56F89C60CDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>414336</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2330,7 +3347,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2610,19 +3633,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +3653,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2644,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2660,7 +3683,7 @@
         <v>-6700000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2676,7 +3699,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2692,12 +3715,12 @@
         <v>36363636.36363636</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B5:B8" si="1">48000000-4000000</f>
+        <f t="shared" ref="B6:B8" si="1">48000000-4000000</f>
         <v>44000000</v>
       </c>
       <c r="C6" s="1">
@@ -2708,7 +3731,7 @@
         <v>33057851.239669412</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2724,7 +3747,7 @@
         <v>30052592.036063101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2740,40 +3763,40 @@
         <v>27320538.214602817</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>SUM(D3:D8)</f>
         <v>160094617.85397169</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f>D9/(-1*D3)</f>
         <v>23.894719082682343</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f>IRR(B3:B8)</f>
         <v>6.5668994583108304</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>4</v>
       </c>
     </row>
@@ -2785,79 +3808,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA3074A-9DA4-49B2-94F5-19AC6DD35ABC}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="19">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30000</v>
+      </c>
+      <c r="C2">
+        <f>B2*100</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>$B$2 *0.56</f>
+        <v>16800</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">B3*100</f>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>$B$2 *0.36</f>
+        <v>10800</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>$B$2 *0.34</f>
+        <v>10200</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>$B$2 *0.33</f>
+        <v>9900</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>$B$2 *0.32</f>
+        <v>9600</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>$B$2 *0.29</f>
+        <v>8700</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B11" si="1">$B$2 *0.29</f>
+        <v>8700</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8700</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8700</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B13" si="2">$B$2 *0.27</f>
+        <v>8100.0000000000009</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>810000.00000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>8100.0000000000009</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>810000.00000000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>13830000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>3120000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="104.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.05</v>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>(C14 - C16)*C17</f>
+        <v>1606500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <f>C14-C16-C18</f>
+        <v>9103500</v>
       </c>
     </row>
   </sheetData>
@@ -2867,20 +4030,219 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FBD559-AECD-4ADA-954C-62616491DA4B}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>34100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -2910,11 +4272,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="4">
@@ -2927,25 +4289,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="4">
@@ -2958,25 +4320,25 @@
         <v>3</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="4">
@@ -2989,25 +4351,25 @@
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="4">
@@ -3020,25 +4382,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="4">
@@ -3051,25 +4413,25 @@
         <v>4</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4">
@@ -3082,25 +4444,25 @@
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="4">
@@ -3113,25 +4475,25 @@
         <v>4</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="4">
@@ -3147,25 +4509,25 @@
         <f>SUM(E2:E9)</f>
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3178,25 +4540,25 @@
         <v>7</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3209,25 +4571,25 @@
         <v>4</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -3240,25 +4602,25 @@
         <v>4</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3271,25 +4633,25 @@
         <v>4</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3305,25 +4667,25 @@
         <f>SUM(E10:E14)</f>
         <v>26</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3336,25 +4698,25 @@
         <v>7</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3367,25 +4729,25 @@
         <v>7</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3398,25 +4760,25 @@
         <v>10</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3432,25 +4794,25 @@
         <f>SUM(E15:E18)</f>
         <v>31</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>52</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="4"/>
@@ -3461,25 +4823,25 @@
         <v>5</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="4"/>
@@ -3490,25 +4852,25 @@
         <v>5</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="4"/>
@@ -3522,30 +4884,30 @@
         <f>SUM(E19:E21)</f>
         <v>17</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F22" s="4">
         <f>SUM(F9:F21)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
@@ -3558,9 +4920,8 @@
       <c r="D24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15</v>
       </c>
@@ -3576,7 +4937,6 @@
         <f>C25/30</f>
         <v>6.3125</v>
       </c>
-      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3584,17 +4944,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -3609,15 +4969,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
         <v>80</v>
       </c>
@@ -3625,51 +4985,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>0.9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>0.85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -3679,7 +5039,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +5048,7 @@
         <v>15.311642477126528</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -3702,20 +5062,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +5107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3763,7 +5123,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3799,7 +5159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3835,7 +5195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3871,7 +5231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3907,7 +5267,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3943,7 +5303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3979,7 +5339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4015,7 +5375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4050,7 +5410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
@@ -4067,17 +5427,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="1">
         <v>40</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="1">
         <v>50</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="1">
         <v>60</v>
       </c>
       <c r="K14" s="1">
@@ -4085,17 +5445,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="1">
         <v>30</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="1">
         <v>45</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="1">
         <v>55</v>
       </c>
       <c r="K15" s="1">
@@ -4103,17 +5463,17 @@
         <v>44.166666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="1">
         <v>15</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="1">
         <v>20</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="1">
         <v>25</v>
       </c>
       <c r="K16" s="1">
@@ -4121,17 +5481,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="1">
         <v>30</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="1">
         <v>40</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="1">
         <v>70</v>
       </c>
       <c r="K17" s="1">
@@ -4139,17 +5499,17 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="1">
         <v>15</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="1">
         <v>30</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="1">
         <v>40</v>
       </c>
       <c r="K18" s="1">
@@ -4157,17 +5517,17 @@
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="1">
         <v>15</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="1">
         <v>30</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="1">
         <v>40</v>
       </c>
       <c r="K19" s="1">
@@ -4175,17 +5535,17 @@
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="1">
         <v>3</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="1">
         <v>10</v>
       </c>
       <c r="K20" s="1">
@@ -4193,17 +5553,17 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="1">
         <v>7</v>
       </c>
       <c r="K21" s="1">
@@ -4211,14 +5571,14 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="8" t="s">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f>SUM(K14:K21)</f>
         <v>225.49999999999997</v>
       </c>

--- a/Управление проектами/lab3/3lab.xlsx
+++ b/Управление проектами/lab3/3lab.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28802"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28182E-4FD8-4EBA-87F6-540D4DC8B654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -375,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1249,6 +1248,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1429,7 +1429,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3633,19 +3635,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3655,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3667,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3683,7 +3685,7 @@
         <v>-6700000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>36363636.36363636</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>33057851.239669412</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>30052592.036063101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>27320538.214602817</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>160094617.85397169</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>23.894719082682343</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>6.5668994583108304</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3808,19 +3810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA3074A-9DA4-49B2-94F5-19AC6DD35ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>1680000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>1080000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3882,7 +3884,7 @@
         <v>1020000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>960000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3934,7 +3936,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3947,7 +3949,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>810000.00000000012</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3986,13 +3988,13 @@
         <v>810000.00000000012</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>13830000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>107</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>3120000</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>108</v>
       </c>
@@ -4008,13 +4010,13 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>(C14 - C16)*C17</f>
         <v>1606500</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -4030,16 +4032,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FBD559-AECD-4ADA-954C-62616491DA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4087,7 +4089,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4119,7 +4121,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4135,7 +4137,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -4158,16 +4160,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
@@ -4178,7 +4180,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>96</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>100</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>102</v>
       </c>
@@ -4229,20 +4231,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
@@ -4647,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
@@ -4712,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>54</v>
       </c>
@@ -4837,7 +4839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>54</v>
       </c>
@@ -4866,7 +4868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
@@ -4898,16 +4900,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F22" s="4">
         <f>SUM(F9:F21)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -4945,16 +4947,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>78</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>80</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -4996,7 +4998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -5039,7 +5041,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>15.311642477126528</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -5063,19 +5065,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5107,7 +5109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5123,7 +5125,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5303,7 +5305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>44.166666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>26</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G22" s="7" t="s">
         <v>33</v>
       </c>
